--- a/DokkanKits/39.xlsx
+++ b/DokkanKits/39.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tyler\Documents\DokkanAnalysis\DokkanKits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479ACE01-20DE-4418-ACCB-7ADF2BE0BE8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59EAC529-D385-41D4-9344-64FF1E2CD900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-83" yWindow="0" windowWidth="11415" windowHeight="14362" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -331,7 +331,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -345,6 +345,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -387,7 +388,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,6 +417,11 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
+        <row r="6">
+          <cell r="B6">
+            <v>3.5</v>
+          </cell>
+        </row>
         <row r="21">
           <cell r="D21">
             <v>0.104</v>
@@ -714,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -878,7 +884,7 @@
         <v>31</v>
       </c>
       <c r="B14">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.45">
@@ -1012,7 +1018,7 @@
         <v>1</v>
       </c>
       <c r="C27">
-        <f t="shared" ref="C26:C27" si="0">0.8*(1-0.25)</f>
+        <f t="shared" ref="C27" si="0">0.8*(1-0.25)</f>
         <v>0.60000000000000009</v>
       </c>
       <c r="M27">

--- a/DokkanKits/39.xlsx
+++ b/DokkanKits/39.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tyler\Documents\DokkanAnalysis\DokkanKits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59EAC529-D385-41D4-9344-64FF1E2CD900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3698804-3C8C-4550-AABE-E7EE7EF8328E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -417,11 +417,6 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="6">
-          <cell r="B6">
-            <v>3.5</v>
-          </cell>
-        </row>
         <row r="21">
           <cell r="D21">
             <v>0.104</v>
@@ -721,7 +716,7 @@
   <dimension ref="A1:O67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -968,8 +963,8 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <f>(2+2)*(1-[1]Sheet1!$D$21)</f>
-        <v>3.5840000000000001</v>
+        <f>2*(1-[1]Sheet1!$D$21)</f>
+        <v>1.792</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.45">
@@ -980,8 +975,8 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <f>2</f>
-        <v>2</v>
+        <f>0</f>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.45">
@@ -992,8 +987,8 @@
         <v>1</v>
       </c>
       <c r="C25">
-        <f>0.8*(1-0.25)</f>
-        <v>0.60000000000000009</v>
+        <f>2+0.8*(1-0.25)</f>
+        <v>2.6</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1018,8 +1013,8 @@
         <v>1</v>
       </c>
       <c r="C27">
-        <f t="shared" ref="C27" si="0">0.8*(1-0.25)</f>
-        <v>0.60000000000000009</v>
+        <f>2+0.8*(1-0.25)</f>
+        <v>2.6</v>
       </c>
       <c r="M27">
         <v>0</v>
